--- a/Data/Output/matched_fuzzy.xlsx
+++ b/Data/Output/matched_fuzzy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1379,7 +1379,7 @@
         <v>422</v>
       </c>
       <c r="E21" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -3633,25 +3633,25 @@
         <v>3017</v>
       </c>
       <c r="E70" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>INTERNATIONAL TRADE CENTER</t>
+          <t>INTERNATIONAL RESORTS COMPANY</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>INTERNATIONAL TRADE CENTER</t>
+          <t>INTERNATIONAL RESORTS</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>CENTER INTERNATIONAL TRADE</t>
+          <t>INTERNATIONAL RESORTS</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6504</v>
+        <v>6501</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -4260,42 +4260,42 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nmdc Energy P.J.S.C.</t>
+          <t>National General Trading FZC</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NMDC ENERGY</t>
+          <t>NATIONAL GENERAL TRADING</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ENERGY NMDC</t>
+          <t>GENERAL NATIONAL TRADING</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4593</v>
+        <v>4454</v>
       </c>
       <c r="E84" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NMDC ENERGY PJSC</t>
+          <t>NATIONAL UNITED TRADING CO LLC</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>NMDC ENERGY</t>
+          <t>NATIONAL UNITED TRADING</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>ENERGY NMDC</t>
+          <t>NATIONAL TRADING UNITED</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>8742</v>
+        <v>8600</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4306,42 +4306,42 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Oasis Ethanol Industries Private Limited</t>
+          <t>Nmdc Energy P.J.S.C.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>OASIS ETHANOL INDUSTRIES</t>
+          <t>NMDC ENERGY</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ETHANOL INDUSTRIES OASIS</t>
+          <t>ENERGY NMDC</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4671</v>
+        <v>4593</v>
       </c>
       <c r="E85" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>OASIS WEAR TECH INDUSTRIES LLC</t>
+          <t>NMDC ENERGY PJSC</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>OASIS WEAR TECHNOLOGY INDUSTRIES</t>
+          <t>NMDC ENERGY</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>INDUSTRIES OASIS TECHNOLOGY WEAR</t>
+          <t>ENERGY NMDC</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>8883</v>
+        <v>8742</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4352,42 +4352,42 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Oula Fuel Marketing Company (K.S.C.P.)</t>
+          <t>Oasis Ethanol Industries Private Limited</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>OULA FUEL MARKETING KSCP</t>
+          <t>OASIS ETHANOL INDUSTRIES</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>FUEL KSCP MARKETING OULA</t>
+          <t>ETHANOL INDUSTRIES OASIS</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4798</v>
+        <v>4671</v>
       </c>
       <c r="E86" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>OULA FUEL MARKETING CO</t>
+          <t>OASIS WEAR TECH INDUSTRIES LLC</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>OULA FUEL MARKETING</t>
+          <t>OASIS WEAR TECHNOLOGY INDUSTRIES</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FUEL MARKETING OULA</t>
+          <t>INDUSTRIES OASIS TECHNOLOGY WEAR</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>9124</v>
+        <v>8883</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4398,42 +4398,42 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Petrochem Middle East ( India) Private Limited</t>
+          <t>Oula Fuel Marketing Company (K.S.C.P.)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PETROCHEM MIDDLE EAST INDIA</t>
+          <t>OULA FUEL MARKETING KSCP</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>EAST INDIA MIDDLE PETROCHEM</t>
+          <t>FUEL KSCP MARKETING OULA</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4956</v>
+        <v>4798</v>
       </c>
       <c r="E87" t="n">
         <v>88</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>PETROCHEM MIDDLE EAST FZE</t>
+          <t>OULA FUEL MARKETING CO</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PETROCHEM MIDDLE EAST</t>
+          <t>OULA FUEL MARKETING</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>EAST MIDDLE PETROCHEM</t>
+          <t>FUEL MARKETING OULA</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>9295</v>
+        <v>9124</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4444,42 +4444,42 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Prem Motors PVT LTD</t>
+          <t>Petrochem Middle East ( India) Private Limited</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PREM MOTORS</t>
+          <t>PETROCHEM MIDDLE EAST INDIA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MOTORS PREM</t>
+          <t>EAST INDIA MIDDLE PETROCHEM</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>5091</v>
+        <v>4956</v>
       </c>
       <c r="E88" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>PREMJI MOTORS P LTD</t>
+          <t>PETROCHEM MIDDLE EAST FZE</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PREMJI MOTORS P</t>
+          <t>PETROCHEM MIDDLE EAST</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>MOTORS P PREMJI</t>
+          <t>EAST MIDDLE PETROCHEM</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>9467</v>
+        <v>9295</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4490,42 +4490,42 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Qatar Chemical Company Limited (Q-Chem)</t>
+          <t>Prem Motors PVT LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>QATAR CHEMICAL QCHEM</t>
+          <t>PREM MOTORS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CHEMICAL QATAR QCHEM</t>
+          <t>MOTORS PREM</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5193</v>
+        <v>5091</v>
       </c>
       <c r="E89" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>QATAR CHEMICAL COMPANY II LTD.</t>
+          <t>PREMJI MOTORS P LTD</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>QATAR CHEMICAL II</t>
+          <t>PREMJI MOTORS P</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>CHEMICAL II QATAR</t>
+          <t>MOTORS P PREMJI</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>9613</v>
+        <v>9467</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4536,42 +4536,42 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Qatar Liquified GAS Company Limited</t>
+          <t>Qatar Chemical Company Limited (Q-Chem)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>QATAR LIQUIFIED GAS</t>
+          <t>QATAR CHEMICAL QCHEM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GAS LIQUIFIED QATAR</t>
+          <t>CHEMICAL QATAR QCHEM</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>5199</v>
+        <v>5193</v>
       </c>
       <c r="E90" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>QATAR LIQUEFIED GAS CO. LTD. (III)</t>
+          <t>QATAR CHEMICAL COMPANY II LTD.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>QATAR LIQUEFIED GAS III</t>
+          <t>QATAR CHEMICAL II</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>GAS III LIQUEFIED QATAR</t>
+          <t>CHEMICAL II QATAR</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>9629</v>
+        <v>9613</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4582,42 +4582,42 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ramco Trading &amp; Contracting</t>
+          <t>Qatar Liquified GAS Company Limited</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RAMCO TRADING CONTRACTING</t>
+          <t>QATAR LIQUIFIED GAS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CONTRACTING RAMCO TRADING</t>
+          <t>GAS LIQUIFIED QATAR</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5361</v>
+        <v>5199</v>
       </c>
       <c r="E91" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>RAMCO TRADING &amp; CONTRACTG W.L.L</t>
+          <t>QATAR LIQUEFIED GAS CO. LTD. (III)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>RAMCO TRADING CONTRACTG</t>
+          <t>QATAR LIQUEFIED GAS III</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>CONTRACTG RAMCO TRADING</t>
+          <t>GAS III LIQUEFIED QATAR</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>9757</v>
+        <v>9629</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4628,42 +4628,42 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Shanker International Private Limited</t>
+          <t>Ramco Trading &amp; Contracting</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SHANKER INTERNATIONAL</t>
+          <t>RAMCO TRADING CONTRACTING</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>INTERNATIONAL SHANKER</t>
+          <t>CONTRACTING RAMCO TRADING</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5932</v>
+        <v>5361</v>
       </c>
       <c r="E92" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>SHANU INTERNATIONAL FZE</t>
+          <t>RAMCO TRADING &amp; CONTRACTG W.L.L</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>SHANU INTERNATIONAL</t>
+          <t>RAMCO TRADING CONTRACTG</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>INTERNATIONAL SHANU</t>
+          <t>CONTRACTG RAMCO TRADING</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>10437</v>
+        <v>9757</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4674,42 +4674,42 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Shree Hari Food Products Private Limited</t>
+          <t>Shanker International Private Limited</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SHREE HARI FOOD PRODUCTS</t>
+          <t>SHANKER INTERNATIONAL</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>FOOD HARI PRODUCTS SHREE</t>
+          <t>INTERNATIONAL SHANKER</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>6051</v>
+        <v>5932</v>
       </c>
       <c r="E93" t="n">
         <v>90</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>SHREE LAXMI FOOD PRODUCTS</t>
+          <t>SHANU INTERNATIONAL FZE</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>SHREE LAXMI FOOD PRODUCTS</t>
+          <t>SHANU INTERNATIONAL</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>FOOD LAXMI PRODUCTS SHREE</t>
+          <t>INTERNATIONAL SHANU</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>10525</v>
+        <v>10437</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4720,42 +4720,42 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Soficopharm Pharmaceutical S.A.E.</t>
+          <t>Shree Hari Food Products Private Limited</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SOFICOPHARM PHARMACEUTICAL</t>
+          <t>SHREE HARI FOOD PRODUCTS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PHARMACEUTICAL SOFICOPHARM</t>
+          <t>FOOD HARI PRODUCTS SHREE</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6323</v>
+        <v>6051</v>
       </c>
       <c r="E94" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>SOFICOPHARMA PHARMACEUTICALS</t>
+          <t>SHREE LAXMI FOOD PRODUCTS</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>SOFICOPHARMA PHARMACEUTICALS</t>
+          <t>SHREE LAXMI FOOD PRODUCTS</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>PHARMACEUTICALS SOFICOPHARMA</t>
+          <t>FOOD LAXMI PRODUCTS SHREE</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>10693</v>
+        <v>10525</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4766,42 +4766,42 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Spire International (L. L. C)</t>
+          <t>Soficopharm Pharmaceutical S.A.E.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SPIRE INTERNATIONAL L L C</t>
+          <t>SOFICOPHARM PHARMACEUTICAL</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>C INTERNATIONAL L L SPIRE</t>
+          <t>PHARMACEUTICAL SOFICOPHARM</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6403</v>
+        <v>6323</v>
       </c>
       <c r="E95" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>SPIRE INTERNATIONAL LLC</t>
+          <t>SOFICOPHARMA PHARMACEUTICALS</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>SPIRE INTERNATIONAL</t>
+          <t>SOFICOPHARMA PHARMACEUTICALS</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>INTERNATIONAL SPIRE</t>
+          <t>PHARMACEUTICALS SOFICOPHARMA</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>10814</v>
+        <v>10693</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4812,42 +4812,42 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Star Cement Limited</t>
+          <t>Spire International (L. L. C)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>STAR CEMENT</t>
+          <t>SPIRE INTERNATIONAL L L C</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CEMENT STAR</t>
+          <t>C INTERNATIONAL L L SPIRE</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6512</v>
+        <v>6403</v>
       </c>
       <c r="E96" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>STAR CEMENT CO. (L.L.C)</t>
+          <t>SPIRE INTERNATIONAL LLC</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>STAR CEMENT</t>
+          <t>SPIRE INTERNATIONAL</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>CEMENT STAR</t>
+          <t>INTERNATIONAL SPIRE</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>10843</v>
+        <v>10814</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4858,42 +4858,42 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Technical Glass and Aluminum Company (Limited Liability)</t>
+          <t>Star Cement Limited</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TECHNICAL GLASS AND ALUMINUM LIABILITY</t>
+          <t>STAR CEMENT</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ALUMINUM AND GLASS LIABILITY TECHNICAL</t>
+          <t>CEMENT STAR</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6766</v>
+        <v>6512</v>
       </c>
       <c r="E97" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>TECHNICAL GLASS AND ALUMINIUM CO LLC</t>
+          <t>STAR CEMENT CO. (L.L.C)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>TECHNICAL GLASS AND ALUMINIUM</t>
+          <t>STAR CEMENT</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>ALUMINIUM AND GLASS TECHNICAL</t>
+          <t>CEMENT STAR</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>11242</v>
+        <v>10843</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4904,42 +4904,42 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>THE Metal Powder Company Limited</t>
+          <t>Technical Glass and Aluminum Company (Limited Liability)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>THE METAL POWDER</t>
+          <t>TECHNICAL GLASS AND ALUMINUM LIABILITY</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>METAL POWDER THE</t>
+          <t>ALUMINUM AND GLASS LIABILITY TECHNICAL</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>6822</v>
+        <v>6766</v>
       </c>
       <c r="E98" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>THE TATA POWER COMPANY LIMITED</t>
+          <t>TECHNICAL GLASS AND ALUMINIUM CO LLC</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>THE TATA POWER</t>
+          <t>TECHNICAL GLASS AND ALUMINIUM</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>POWER TATA THE</t>
+          <t>ALUMINIUM AND GLASS TECHNICAL</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>11493</v>
+        <v>11242</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4950,42 +4950,42 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Tradecom International Private Limited</t>
+          <t>THE Metal Powder Company Limited</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRADECOM INTERNATIONAL</t>
+          <t>THE METAL POWDER</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>INTERNATIONAL TRADECOM</t>
+          <t>METAL POWDER THE</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>6921</v>
+        <v>6822</v>
       </c>
       <c r="E99" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>TRADECORP INTERNATIONAL FZCO</t>
+          <t>THE TATA POWER COMPANY LIMITED</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>TRADECORP INTERNATIONAL FZCO</t>
+          <t>THE TATA POWER</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>FZCO INTERNATIONAL TRADECORP</t>
+          <t>POWER TATA THE</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>11615</v>
+        <v>11493</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4996,42 +4996,42 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Tradex Middle East FZE</t>
+          <t>Tradecom International Private Limited</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRADEX MIDDLE EAST</t>
+          <t>TRADECOM INTERNATIONAL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EAST MIDDLE TRADEX</t>
+          <t>INTERNATIONAL TRADECOM</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6922</v>
+        <v>6921</v>
       </c>
       <c r="E100" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>TRADE X MIDDLE EAST - FZCO</t>
+          <t>TRADECORP INTERNATIONAL FZCO</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>TRADE X MIDDLE EAST FZCO</t>
+          <t>TRADECORP INTERNATIONAL FZCO</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>EAST FZCO MIDDLE TRADE X</t>
+          <t>FZCO INTERNATIONAL TRADECORP</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>11614</v>
+        <v>11615</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -5042,42 +5042,42 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Union Group Trading Company SAE</t>
+          <t>Tradex Middle East FZE</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>UNION GROUP TRADING</t>
+          <t>TRADEX MIDDLE EAST</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>GROUP TRADING UNION</t>
+          <t>EAST MIDDLE TRADEX</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>7020</v>
+        <v>6922</v>
       </c>
       <c r="E101" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">UNION GROUP FOR TRADING </t>
+          <t>TRADE X MIDDLE EAST - FZCO</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>UNION GROUP FOR TRADING</t>
+          <t>TRADE X MIDDLE EAST FZCO</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>FOR GROUP TRADING UNION</t>
+          <t>EAST FZCO MIDDLE TRADE X</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>11828</v>
+        <v>11614</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -5088,42 +5088,42 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>United Breweries Limited</t>
+          <t>Union Group Trading Company SAE</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>UNITED BREWERIES</t>
+          <t>UNION GROUP TRADING</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BREWERIES UNITED</t>
+          <t>GROUP TRADING UNION</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>7033</v>
+        <v>7020</v>
       </c>
       <c r="E102" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>UNITED GROCERIES</t>
+          <t xml:space="preserve">UNION GROUP FOR TRADING </t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>UNITED GROCERIES</t>
+          <t>UNION GROUP FOR TRADING</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>GROCERIES UNITED</t>
+          <t>FOR GROUP TRADING UNION</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>11884</v>
+        <v>11828</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -5134,42 +5134,42 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>United Company of Pharmacists SAE</t>
+          <t>United Breweries Limited</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>UNITED OF PHARMACISTS</t>
+          <t>UNITED BREWERIES</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>OF PHARMACISTS UNITED</t>
+          <t>BREWERIES UNITED</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>7035</v>
+        <v>7033</v>
       </c>
       <c r="E103" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>UNITED COMPANY FOR PHARMACISTS</t>
+          <t>UNITED GROCERIES</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>UNITED FOR PHARMACISTS</t>
+          <t>UNITED GROCERIES</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>FOR PHARMACISTS UNITED</t>
+          <t>GROCERIES UNITED</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>11865</v>
+        <v>11884</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -5180,42 +5180,42 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>United Iron and Steel Company LLC</t>
+          <t>United Company of Pharmacists SAE</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>UNITED IRON AND STEEL</t>
+          <t>UNITED OF PHARMACISTS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>AND IRON STEEL UNITED</t>
+          <t>OF PHARMACISTS UNITED</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>7043</v>
+        <v>7035</v>
       </c>
       <c r="E104" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>UNITED IRON &amp; STEEL COMPANY LLC</t>
+          <t>UNITED COMPANY FOR PHARMACISTS</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>UNITED IRON STEEL</t>
+          <t>UNITED FOR PHARMACISTS</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>IRON STEEL UNITED</t>
+          <t>FOR PHARMACISTS UNITED</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>11887</v>
+        <v>11865</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -5226,42 +5226,42 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Usha Martin Limited</t>
+          <t>United Iron and Steel Company LLC</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>USHA MARTIN</t>
+          <t>UNITED IRON AND STEEL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MARTIN USHA</t>
+          <t>AND IRON STEEL UNITED</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>7066</v>
+        <v>7043</v>
       </c>
       <c r="E105" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>USHA MARKETING</t>
+          <t>UNITED IRON &amp; STEEL COMPANY LLC</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>USHA MARKETING</t>
+          <t>UNITED IRON STEEL</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>MARKETING USHA</t>
+          <t>IRON STEEL UNITED</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>11941</v>
+        <v>11887</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5272,42 +5272,42 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Video Home &amp; Electronic Centre</t>
+          <t>Usha Martin Limited</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>VIDEO HOME ELECTRONIC CENTRE</t>
+          <t>USHA MARTIN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CENTRE ELECTRONIC HOME VIDEO</t>
+          <t>MARTIN USHA</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>7201</v>
+        <v>7066</v>
       </c>
       <c r="E106" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve">VIDEO HOME AND ELECTRONIC CENTRE W.L.L </t>
+          <t>USHA MARKETING</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>VIDEO HOME AND ELECTRONIC CENTRE</t>
+          <t>USHA MARKETING</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>AND CENTRE ELECTRONIC HOME VIDEO</t>
+          <t>MARKETING USHA</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>12049</v>
+        <v>11941</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -5318,42 +5318,42 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>VIN Metal Synergies FZE</t>
+          <t>Video Home &amp; Electronic Centre</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>VIN METAL SYNERGIES</t>
+          <t>VIDEO HOME ELECTRONIC CENTRE</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>METAL SYNERGIES VIN</t>
+          <t>CENTRE ELECTRONIC HOME VIDEO</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>7240</v>
+        <v>7201</v>
       </c>
       <c r="E107" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>VIN METAL SYNERGIES FZCO</t>
+          <t xml:space="preserve">VIDEO HOME AND ELECTRONIC CENTRE W.L.L </t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>VIN METAL SYNERGIES FZCO</t>
+          <t>VIDEO HOME AND ELECTRONIC CENTRE</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>FZCO METAL SYNERGIES VIN</t>
+          <t>AND CENTRE ELECTRONIC HOME VIDEO</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>12060</v>
+        <v>12049</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5364,42 +5364,42 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>W.J. Towell CO. (L.L.C.)</t>
+          <t>VIN Metal Synergies FZE</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>WJ TOWELL</t>
+          <t>VIN METAL SYNERGIES</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TOWELL WJ</t>
+          <t>METAL SYNERGIES VIN</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>7354</v>
+        <v>7240</v>
       </c>
       <c r="E108" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>W J TOWELL CO.LLC.</t>
+          <t>VIN METAL SYNERGIES FZCO</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>WJ TOWELL</t>
+          <t>VIN METAL SYNERGIES FZCO</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>TOWELL WJ</t>
+          <t>FZCO METAL SYNERGIES VIN</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>12147</v>
+        <v>12060</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5410,42 +5410,42 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wadi Food Industrial Company SAE</t>
+          <t>W.J. Towell CO. (L.L.C.)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WADI FOOD INDUSTRIAL</t>
+          <t>WJ TOWELL</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>FOOD INDUSTRIAL WADI</t>
+          <t>TOWELL WJ</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>7357</v>
+        <v>7354</v>
       </c>
       <c r="E109" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>WADI FOOD INDUSTRIES SAE</t>
+          <t>W J TOWELL CO.LLC.</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>WADI FOOD INDUSTRIES</t>
+          <t>WJ TOWELL</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>FOOD INDUSTRIES WADI</t>
+          <t>TOWELL WJ</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>12166</v>
+        <v>12147</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -5456,42 +5456,42 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wakalex FOR Industry and Trading Company</t>
+          <t>Wadi Food Industrial Company SAE</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>WAKALEX FOR INDUSTRY AND TRADING</t>
+          <t>WADI FOOD INDUSTRIAL</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>AND FOR INDUSTRY TRADING WAKALEX</t>
+          <t>FOOD INDUSTRIAL WADI</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7359</v>
+        <v>7357</v>
       </c>
       <c r="E110" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>WAKALEX FOR INDUSTRY AND TRADE</t>
+          <t>WADI FOOD INDUSTRIES SAE</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>WAKALEX FOR INDUSTRY AND TRADE</t>
+          <t>WADI FOOD INDUSTRIES</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>AND FOR INDUSTRY TRADE WAKALEX</t>
+          <t>FOOD INDUSTRIES WADI</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>12177</v>
+        <v>12166</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5502,42 +5502,42 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Worldfa Exports Private Limited</t>
+          <t>Wakalex FOR Industry and Trading Company</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>WORLDFA EXPORTS</t>
+          <t>WAKALEX FOR INDUSTRY AND TRADING</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EXPORTS WORLDFA</t>
+          <t>AND FOR INDUSTRY TRADING WAKALEX</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7434</v>
+        <v>7359</v>
       </c>
       <c r="E111" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>WORLD EXPORT CORPORATION FZE</t>
+          <t>WAKALEX FOR INDUSTRY AND TRADE</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>WORLD EXPORT</t>
+          <t>WAKALEX FOR INDUSTRY AND TRADE</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>EXPORT WORLD</t>
+          <t>AND FOR INDUSTRY TRADE WAKALEX</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>12293</v>
+        <v>12177</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -5548,42 +5548,42 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ZAD Holding Company Q.P.S.C.</t>
+          <t>Worldfa Exports Private Limited</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ZAD HOLDING QPSC</t>
+          <t>WORLDFA EXPORTS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HOLDING QPSC ZAD</t>
+          <t>EXPORTS WORLDFA</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>7471</v>
+        <v>7434</v>
       </c>
       <c r="E112" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ZAD HOLDING COMPANY</t>
+          <t>WORLD EXPORT CORPORATION FZE</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>ZAD HOLDING</t>
+          <t>WORLD EXPORT</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>HOLDING ZAD</t>
+          <t>EXPORT WORLD</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>12368</v>
+        <v>12293</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5594,44 +5594,90 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>ZAD Holding Company Q.P.S.C.</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ZAD HOLDING QPSC</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>HOLDING QPSC ZAD</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>7471</v>
+      </c>
+      <c r="E113" t="n">
+        <v>81</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ZAD HOLDING COMPANY</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>ZAD HOLDING</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>HOLDING ZAD</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>12368</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>fuzzy_ratio</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>Zamil Steel Buildings Company Egypt SAE</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>ZAMIL STEEL BUILDINGS EGYPT</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>BUILDINGS EGYPT STEEL ZAMIL</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D114" t="n">
         <v>7472</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E114" t="n">
         <v>93</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>ZAMIL FOR STEEL BUILDINGS EGYPT COMPANY</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>ZAMIL FOR STEEL BUILDINGS EGYPT</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>BUILDINGS EGYPT FOR STEEL ZAMIL</t>
         </is>
       </c>
-      <c r="I113" t="n">
+      <c r="I114" t="n">
         <v>12388</v>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>fuzzy_ratio</t>
         </is>
